--- a/Data_file/vender_import.xlsx
+++ b/Data_file/vender_import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23234,7 +23234,7 @@
   <dimension ref="A1:U1118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data_file/vender_import.xlsx
+++ b/Data_file/vender_import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14806" uniqueCount="7628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14808" uniqueCount="7630">
   <si>
     <t>name</t>
   </si>
@@ -22912,13 +22912,19 @@
   </si>
   <si>
     <t>MY</t>
+  </si>
+  <si>
+    <t>Account Receivable</t>
+  </si>
+  <si>
+    <t>Account Payable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22927,13 +22933,33 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -22948,9 +22974,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -23231,10 +23259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1118"/>
+  <dimension ref="A1:W1118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23253,9 +23281,12 @@
     <col min="14" max="14" width="28.33203125" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.44140625" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" customWidth="1"/>
+    <col min="22" max="22" width="17.88671875" customWidth="1"/>
+    <col min="23" max="23" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>7610</v>
       </c>
@@ -23319,8 +23350,14 @@
       <c r="U1" t="s">
         <v>7625</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="2" t="s">
+        <v>7628</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>7629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -23355,7 +23392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:23">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -23388,7 +23425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:23">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -23421,7 +23458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:23">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -23451,7 +23488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:23">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -23481,7 +23518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -23519,7 +23556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -23557,7 +23594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -23595,7 +23632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -23633,7 +23670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -23668,7 +23705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -23706,7 +23743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -23742,7 +23779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -23775,7 +23812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -23810,7 +23847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>78</v>
       </c>
